--- a/DB/States-2023-08-18.xlsx
+++ b/DB/States-2023-08-18.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Desktop\Django_Proj\AIS\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django_Proj\src\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,6 @@
     <t>regionID</t>
   </si>
   <si>
-    <t>stateName_ar</t>
-  </si>
-  <si>
-    <t>stateName_en</t>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
@@ -1003,6 +997,12 @@
   </si>
   <si>
     <t>capitalState</t>
+  </si>
+  <si>
+    <t>name_en</t>
+  </si>
+  <si>
+    <t>name_ar</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,16 +1436,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1540,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1582,7 +1582,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1596,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1610,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1624,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1638,7 +1638,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1652,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1666,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1680,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1694,7 +1694,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1708,10 +1708,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4">
@@ -1726,10 +1726,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4">
@@ -1744,10 +1744,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4">
@@ -1762,10 +1762,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4">
@@ -1780,10 +1780,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4">
@@ -1798,10 +1798,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4">
@@ -1816,10 +1816,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4">
@@ -1834,10 +1834,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4">
@@ -1852,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4">
@@ -1870,10 +1870,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4">
@@ -1888,10 +1888,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4">
@@ -1906,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="4">
@@ -1924,10 +1924,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4">
@@ -1942,10 +1942,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4">
@@ -1960,10 +1960,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4">
@@ -1978,10 +1978,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4">
@@ -1996,10 +1996,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="4">
@@ -2014,10 +2014,10 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="4">
@@ -2032,10 +2032,10 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4">
@@ -2050,10 +2050,10 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4">
@@ -2068,10 +2068,10 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="6">
@@ -2086,10 +2086,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="6">
@@ -2104,10 +2104,10 @@
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="4">
@@ -2122,10 +2122,10 @@
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="4">
@@ -2140,10 +2140,10 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4">
@@ -2158,10 +2158,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="4">
@@ -2176,10 +2176,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="4">
@@ -2194,10 +2194,10 @@
         <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="4">
@@ -2212,10 +2212,10 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="4">
@@ -2230,10 +2230,10 @@
         <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="4">
@@ -2248,10 +2248,10 @@
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4">
@@ -2266,10 +2266,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="4">
@@ -2284,10 +2284,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="4">
@@ -2302,10 +2302,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="4">
@@ -2320,10 +2320,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="4">
@@ -2338,10 +2338,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="4">
@@ -2356,10 +2356,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4">
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="4">
@@ -2392,10 +2392,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="4">
@@ -2410,10 +2410,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="4">
@@ -2428,10 +2428,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="4">
@@ -2446,10 +2446,10 @@
         <v>8</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4">
@@ -2464,10 +2464,10 @@
         <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4">
@@ -2482,10 +2482,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4">
@@ -2500,10 +2500,10 @@
         <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4">
@@ -2518,10 +2518,10 @@
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4">
@@ -2536,10 +2536,10 @@
         <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="5"/>
@@ -2552,10 +2552,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="5"/>
@@ -2568,10 +2568,10 @@
         <v>9</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="4">
@@ -2586,10 +2586,10 @@
         <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="4">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="4">
@@ -2622,10 +2622,10 @@
         <v>9</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="4">
@@ -2640,10 +2640,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="4">
@@ -2658,10 +2658,10 @@
         <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="4">
@@ -2676,10 +2676,10 @@
         <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="4">
@@ -2694,10 +2694,10 @@
         <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="4">
@@ -2712,10 +2712,10 @@
         <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="4">
@@ -2730,10 +2730,10 @@
         <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4">
@@ -2748,10 +2748,10 @@
         <v>10</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4">
@@ -2766,10 +2766,10 @@
         <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="4">
@@ -2784,10 +2784,10 @@
         <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="4">
@@ -2802,10 +2802,10 @@
         <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4">
@@ -2820,10 +2820,10 @@
         <v>10</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="4">
@@ -2838,10 +2838,10 @@
         <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4">
@@ -2856,10 +2856,10 @@
         <v>10</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4">
@@ -2874,10 +2874,10 @@
         <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4">
@@ -2892,10 +2892,10 @@
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="4">
@@ -2910,10 +2910,10 @@
         <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="4">
@@ -2928,10 +2928,10 @@
         <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="4">
@@ -2946,10 +2946,10 @@
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4">
@@ -2964,10 +2964,10 @@
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="4">
@@ -2982,10 +2982,10 @@
         <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4">
@@ -3000,10 +3000,10 @@
         <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="6">
@@ -3036,10 +3036,10 @@
         <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4">
@@ -3054,10 +3054,10 @@
         <v>11</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4">
@@ -3072,10 +3072,10 @@
         <v>11</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="4">
@@ -3090,10 +3090,10 @@
         <v>11</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="4">
@@ -3108,10 +3108,10 @@
         <v>11</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="5"/>
@@ -3124,10 +3124,10 @@
         <v>12</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="4">
@@ -3142,10 +3142,10 @@
         <v>12</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="4">
@@ -3160,10 +3160,10 @@
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="4">
@@ -3178,10 +3178,10 @@
         <v>12</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="4">
@@ -3196,10 +3196,10 @@
         <v>12</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="4">
@@ -3214,10 +3214,10 @@
         <v>12</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="4">
@@ -3232,10 +3232,10 @@
         <v>12</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="4">
@@ -3250,10 +3250,10 @@
         <v>12</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="4">
@@ -3268,10 +3268,10 @@
         <v>12</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="4">
@@ -3286,10 +3286,10 @@
         <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="4">
@@ -3304,10 +3304,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="4">
@@ -3322,10 +3322,10 @@
         <v>12</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="6">
@@ -3340,10 +3340,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="4">
@@ -3358,10 +3358,10 @@
         <v>13</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="4">
@@ -3376,10 +3376,10 @@
         <v>13</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="4">
@@ -3394,10 +3394,10 @@
         <v>13</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="4">
@@ -3412,10 +3412,10 @@
         <v>13</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="4">
@@ -3430,10 +3430,10 @@
         <v>13</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="4">
@@ -3448,10 +3448,10 @@
         <v>13</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="4">
@@ -3466,10 +3466,10 @@
         <v>13</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="4">
@@ -3484,10 +3484,10 @@
         <v>14</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="4">
@@ -3502,10 +3502,10 @@
         <v>14</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="4">
@@ -3520,10 +3520,10 @@
         <v>14</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="4">
@@ -3538,10 +3538,10 @@
         <v>14</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="4">
@@ -3556,10 +3556,10 @@
         <v>14</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="4">
@@ -3574,10 +3574,10 @@
         <v>14</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="4">
@@ -3592,10 +3592,10 @@
         <v>14</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="4">
@@ -3610,10 +3610,10 @@
         <v>14</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="4">
@@ -3628,10 +3628,10 @@
         <v>14</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="4">
@@ -3646,10 +3646,10 @@
         <v>14</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="4">
@@ -3664,10 +3664,10 @@
         <v>14</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="4">
@@ -3682,10 +3682,10 @@
         <v>14</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="4">
@@ -3700,10 +3700,10 @@
         <v>14</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="4">
@@ -3718,10 +3718,10 @@
         <v>14</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="4">
@@ -3736,10 +3736,10 @@
         <v>14</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="4">
@@ -3754,10 +3754,10 @@
         <v>14</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="4">
@@ -3772,10 +3772,10 @@
         <v>14</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="4">
@@ -3790,10 +3790,10 @@
         <v>14</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="4">
@@ -3808,10 +3808,10 @@
         <v>14</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="4">
@@ -3826,10 +3826,10 @@
         <v>14</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="4">
@@ -3844,10 +3844,10 @@
         <v>14</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="4">
@@ -3862,10 +3862,10 @@
         <v>14</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="4">
@@ -3880,10 +3880,10 @@
         <v>14</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="4">
@@ -3898,10 +3898,10 @@
         <v>14</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="4">
@@ -3916,10 +3916,10 @@
         <v>15</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="4">
@@ -3934,10 +3934,10 @@
         <v>15</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="4">
@@ -3952,10 +3952,10 @@
         <v>15</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="4">
@@ -3970,10 +3970,10 @@
         <v>15</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="4">
@@ -3988,10 +3988,10 @@
         <v>15</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="4">
@@ -4006,10 +4006,10 @@
         <v>15</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="4">
@@ -4024,10 +4024,10 @@
         <v>15</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="4">
@@ -4042,10 +4042,10 @@
         <v>15</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="4">
@@ -4060,10 +4060,10 @@
         <v>15</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="4">
@@ -4078,10 +4078,10 @@
         <v>16</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="4">
@@ -4096,10 +4096,10 @@
         <v>16</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="4">
@@ -4114,10 +4114,10 @@
         <v>16</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="4">
@@ -4132,10 +4132,10 @@
         <v>16</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="4">
@@ -4150,10 +4150,10 @@
         <v>16</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="4">
@@ -4168,10 +4168,10 @@
         <v>16</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="4">
@@ -4186,10 +4186,10 @@
         <v>16</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="4">
@@ -4204,10 +4204,10 @@
         <v>16</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="4">
@@ -4222,10 +4222,10 @@
         <v>16</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="4">
@@ -4240,10 +4240,10 @@
         <v>16</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="4">
@@ -4258,10 +4258,10 @@
         <v>16</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="4">
@@ -4276,10 +4276,10 @@
         <v>16</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="4">
@@ -4294,10 +4294,10 @@
         <v>16</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="4">
@@ -4312,10 +4312,10 @@
         <v>16</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="4">
@@ -4330,10 +4330,10 @@
         <v>16</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="4">
@@ -4348,10 +4348,10 @@
         <v>16</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="4">
@@ -4366,10 +4366,10 @@
         <v>16</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="5"/>
@@ -4382,10 +4382,10 @@
         <v>17</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="4">
@@ -4400,10 +4400,10 @@
         <v>17</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="4">
@@ -4418,10 +4418,10 @@
         <v>17</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="4">
@@ -4436,10 +4436,10 @@
         <v>17</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="4">
@@ -4454,10 +4454,10 @@
         <v>17</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="4">
@@ -4472,10 +4472,10 @@
         <v>17</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="4">
@@ -4490,10 +4490,10 @@
         <v>17</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="4">
